--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_plv_by_3d_spherical_pseudoinverse_sigma_0.3_lamda_0.0001.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_plv_by_3d_spherical_pseudoinverse_sigma_0.3_lamda_0.0001.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="pseudoinverse_sr_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="pseudoinverse_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="pseudoinverse_sr_0.4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -767,4 +769,704 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>90.06020813328834</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2714378863805905</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9006020813328834</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8955475944910283</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>87.88025847974464</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.346525478443679</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8788025847974463</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8774562210373498</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>92.86152994403065</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2162504389654108</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9286152994403066</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9243173310302037</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>81.00416093564823</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5125147620138402</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8100416093564824</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7970733415557067</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>79.11625533092847</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5840425848786254</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7911625533092848</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7750426755365022</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>85.17435271931417</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3999092403721685</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8517435271931418</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8479637542586564</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>84.83827714772619</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4079457813786576</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8483827714772619</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8480161414147641</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>87.96598586492962</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2916876108075182</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8796598586492962</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8790153152046603</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>84.84242943278056</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3767630766145885</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8484242943278056</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8434221766093726</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>83.63350894038875</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3852200357903106</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8363350894038876</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.838256858174975</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>74.80964368203877</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6639596576336771</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7480964368203877</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7518235628433185</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>72.9277934930233</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7164286403315298</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.729277934930233</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.709855061759509</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.13274336283186</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1400611106553697</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9513274336283185</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9515804249087731</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>95.63421828908555</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1142497664461795</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9563421828908554</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9560217392770296</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.48429484684124</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1432507139921654</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9448429484684123</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9427509251186003</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>86.0243773735067</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.371349785646954</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8602437737350669</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8558762082146967</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>93.80530973451327</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1668957537835619</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9380530973451326</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9378045275047358</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>86.19797749115477</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4035555425315882</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8619797749115478</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8587805431229221</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>92.8023598820059</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2018547911691712</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9280235988200589</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9211809950048655</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>83.71681415929204</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4313719327251117</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8371681415929203</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8291147829258205</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>76.61320599659167</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6289465714013204</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7661320599659167</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7496408391318006</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>84.45514234552202</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4391789462262143</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8445514234552203</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8400473761988995</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>81.50736598067456</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4673684930816914</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8150736598067457</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8110295918791219</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>86.96182492928139</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.338307679797678</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8696182492928139</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8654155883048539</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>84.72201316620387</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4578269248323825</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8472201316620385</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8413221135885515</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>79.85700568344018</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5491447739380722</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7985700568344016</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7850474269181499</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>75.10739712281249</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6896462521748618</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7510739712281248</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7377883643439753</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>75.22123893805311</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8019926673422259</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7522123893805309</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7329253891931471</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.48672566371681</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1170570480549941</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9548672566371682</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.954670588858607</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.40117994100294</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.09571603130922693</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9640117994100296</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9640852262292687</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.48377581120944</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1441290075037008</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9448377581120944</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9407271047477875</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>85.82262245636497</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3955328277247868</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8582262245636496</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8513053638635005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>